--- a/shiyo/エンドロール.xlsx
+++ b/shiyo/エンドロール.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7845" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7845" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="案1" sheetId="1" r:id="rId1"/>
     <sheet name="案2" sheetId="4" r:id="rId2"/>
+    <sheet name="確定" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>エンドロール</t>
     <phoneticPr fontId="1"/>
@@ -644,6 +645,221 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に語りを入れてフェードアウトで消えていく</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女子高生、OL、花嫁のその後を描いた1枚絵</t>
+    <rPh sb="0" eb="4">
+      <t>ジョシコウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハナヨメ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示時間は５秒</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２行</t>
+    <rPh sb="1" eb="2">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字表示５秒</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字表示時、絵の上に黒背景かぶせて透過させる(透過度は60%)</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字表示５秒後、文字ごと黒でフェードアウト(フェードアウト時間は２秒)</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OLが企画会議で成功した絵</t>
+    <rPh sb="3" eb="5">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JKが勉強を頑張った結果テストでトップになった絵</t>
+    <rPh sb="3" eb="5">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花嫁が赤ちゃんと楽しく遊んでいる絵</t>
+    <rPh sb="0" eb="2">
+      <t>ハナヨメ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうして女性達が世の中で次々と活躍していくのでした</t>
+    <rPh sb="12" eb="14">
+      <t>ツギツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵内容</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒のフェードインで遷移する</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3424,6 +3640,558 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="876300"/>
+          <a:ext cx="2838450" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="666750" y="1562100"/>
+          <a:ext cx="1733550" cy="1133477"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1743075" y="895350"/>
+          <a:ext cx="1752600" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="885825"/>
+          <a:ext cx="2838450" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403698</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137123</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="545149" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1089498" y="1165823"/>
+          <a:ext cx="545149" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3646</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22823</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="545149" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2746846" y="1051523"/>
+          <a:ext cx="545149" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127598</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="545149" cy="559192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1975320" y="2013548"/>
+          <a:ext cx="545149" cy="559192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2800" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2832854" cy="642484"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495925" y="1562100"/>
+          <a:ext cx="2832854" cy="642484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>こうして女性達は世の中で　　</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:tint val="85000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　　　　　　　</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1" cap="none" spc="0">
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:tint val="85000"/>
+                <a:satMod val="155000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" cap="none" spc="0">
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:satMod val="155000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:tint val="85000"/>
+                  <a:satMod val="155000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="41275" dist="20320" dir="1800000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>　　　　　　　　　　　次々と活躍していくのでした</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -3870,8 +4638,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4059,4 +4827,120 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/shiyo/エンドロール.xlsx
+++ b/shiyo/エンドロール.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>エンドロール</t>
     <phoneticPr fontId="1"/>
@@ -837,13 +837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>こうして女性達が世の中で次々と活躍していくのでした</t>
-    <rPh sb="12" eb="14">
-      <t>ツギツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>絵内容</t>
     <rPh sb="0" eb="1">
       <t>エ</t>
@@ -860,6 +853,41 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１枚絵</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性達は夢や理想を得て、活躍して行く事ができました</t>
+    <rPh sb="0" eb="3">
+      <t>ジョセイタチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カツヤク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4027,9 +4055,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2832854" cy="642484"/>
     <xdr:sp macro="" textlink="">
@@ -4039,7 +4067,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="1562100"/>
+          <a:off x="5505450" y="1524000"/>
           <a:ext cx="2832854" cy="642484"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4078,7 +4106,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>こうして女性達は世の中で　　</a:t>
+            <a:t>女性達は夢や理想を得て</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1" cap="none" spc="0">
             <a:ln w="12700">
@@ -4130,7 +4158,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>　　　　　　　　　　　　　　　　　</a:t>
+            <a:t>　　　　　　　　　　</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1" cap="none" spc="0">
             <a:ln w="12700">
@@ -4182,7 +4210,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>　　　　　　　　　　　次々と活躍していくのでした</a:t>
+            <a:t>　　　　　　　　　　　活躍していく事ができました</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4834,7 +4862,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4883,7 +4911,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
         <v>54</v>
@@ -4891,7 +4919,10 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
       </c>
       <c r="I18" t="s">
         <v>55</v>
@@ -4905,7 +4936,7 @@
         <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
